--- a/SweepsByYear.xlsx
+++ b/SweepsByYear.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Documents\R\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE0F9CA-86E5-4FAA-B648-3C197265BE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24314694-84B3-43C2-864F-381683155DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
   <sheets>
     <sheet name="SweepsByYear" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,21 +163,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -524,10 +509,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -882,157 +865,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.90625" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>2008</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>2009</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>2010</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>2011</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>2012</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>2013</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>2014</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>2015</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>2016</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>696</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>2017</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>2018</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>2019</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>977</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>2020</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>2021</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15">
         <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>2022</v>
       </c>
-      <c r="B16" s="2">
-        <v>923</v>
+      <c r="B16">
+        <v>924</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>2023</v>
       </c>
-      <c r="B17" s="2">
-        <v>2196</v>
+      <c r="B17">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2024</v>
+      </c>
+      <c r="B18">
+        <v>2504</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SweepsByYear.xlsx
+++ b/SweepsByYear.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guy\Documents\R\Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24314694-84B3-43C2-864F-381683155DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{229E0A78-C03B-4B4D-9453-7F0A0000D2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
   </bookViews>
@@ -20,12 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Year</t>
   </si>
   <si>
     <t>SweepCount</t>
+  </si>
+  <si>
+    <t>TentCount</t>
+  </si>
+  <si>
+    <t>StructureCount</t>
+  </si>
+  <si>
+    <t>VehicleCount</t>
   </si>
 </sst>
 </file>
@@ -866,158 +875,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2008</v>
       </c>
       <c r="B2">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2009</v>
       </c>
       <c r="B3">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2010</v>
       </c>
       <c r="B4">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2011</v>
       </c>
       <c r="B5">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2012</v>
       </c>
       <c r="B6">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2013</v>
       </c>
       <c r="B7">
         <v>193</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2014</v>
       </c>
       <c r="B8">
         <v>226</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2015</v>
       </c>
       <c r="B9">
         <v>198</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2016</v>
       </c>
       <c r="B10">
         <v>696</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2017</v>
       </c>
       <c r="B11">
         <v>500</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>1602</v>
+      </c>
+      <c r="D11">
+        <v>400</v>
+      </c>
+      <c r="E11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2018</v>
       </c>
       <c r="B12">
         <v>484</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>2113</v>
+      </c>
+      <c r="D12">
+        <v>365</v>
+      </c>
+      <c r="E12">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2019</v>
       </c>
       <c r="B13">
         <v>977</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>2515</v>
+      </c>
+      <c r="D13">
+        <v>467</v>
+      </c>
+      <c r="E13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
       <c r="B14">
         <v>251</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>426</v>
+      </c>
+      <c r="D14">
+        <v>81</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2021</v>
       </c>
       <c r="B15">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>352</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2022</v>
       </c>
       <c r="B16">
         <v>924</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>843</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2023</v>
       </c>
       <c r="B17">
         <v>2205</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>1638</v>
+      </c>
+      <c r="D17">
+        <v>304</v>
+      </c>
+      <c r="E17">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2024</v>
       </c>
       <c r="B18">
         <v>2504</v>
+      </c>
+      <c r="C18">
+        <v>4147</v>
+      </c>
+      <c r="D18">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2025</v>
+      </c>
+      <c r="B19">
+        <v>1259</v>
+      </c>
+      <c r="C19">
+        <v>2068</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
